--- a/classification/droptc/message/bert-base-uncased/unfreeze/70681460/prediction.xlsx
+++ b/classification/droptc/message/bert-base-uncased/unfreeze/70681460/prediction.xlsx
@@ -1099,12 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal', 'CommunicationIssue']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2665,12 +2665,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/bert-base-uncased/unfreeze/70681460/prediction.xlsx
+++ b/classification/droptc/message/bert-base-uncased/unfreeze/70681460/prediction.xlsx
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1369,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 1, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment', 'CommunicationIssue']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
